--- a/JSON_files/import/Subaccount_limitations.xlsx
+++ b/JSON_files/import/Subaccount_limitations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaido.vetevoog\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F98E41-7DBA-4857-B5C7-26C34D0A46F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77558DC-B764-46A4-8845-A77ADF5A02C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB9CCA7C-519C-461E-8CFB-ED844BE9C7F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="358">
   <si>
     <t>101010</t>
   </si>
@@ -1061,22 +1061,55 @@
     <t>VG_101, VG_102, VG_103</t>
   </si>
   <si>
-    <t>VG_108, VG_109, VG_110, VG_111, VG_199</t>
-  </si>
-  <si>
-    <t>VG_112, VG_113, VG_114, VG_115, VG_116, VG_199</t>
-  </si>
-  <si>
-    <t>VG_201, VG_202, VG_203, VG_199</t>
-  </si>
-  <si>
-    <t>VG_101, VG_102, VG_103, VG_112, VG_113, VG_114, VG_115, VG_116, VG_199</t>
-  </si>
-  <si>
-    <t>VG_101, VG_102, VG_103, VG_104, VG_105, VG_106, VG_107, VG_199</t>
-  </si>
-  <si>
-    <t>VG_101, VG_102, VG_103, VG_104, VG_105, VG_106, VG_107, VG_108, VG_109, VG_110, VG_111,  VG_199</t>
+    <t>VG_201, VG_202, VG_203, VG_999</t>
+  </si>
+  <si>
+    <t>VG_112, VG_113, VG_114, VG_115, VG_116, VG_999</t>
+  </si>
+  <si>
+    <t>VG_101, VG_102, VG_103, VG_104, VG_105, VG_106, VG_107, VG_999</t>
+  </si>
+  <si>
+    <t>VG_108, VG_109, VG_110, VG_111, VG_999</t>
+  </si>
+  <si>
+    <t>VG_101, VG_102, VG_103, VG_104, VG_105, VG_106, VG_107, VG_108, VG_109, VG_110, VG_111,  VG_999</t>
+  </si>
+  <si>
+    <t>VG_101, VG_102, VG_103, VG_112, VG_113, VG_114, VG_115, VG_116, VG_999</t>
+  </si>
+  <si>
+    <t>ML_11, ML_12, ML_13, ML_14</t>
+  </si>
+  <si>
+    <t>AE_11, AE_12, AE_15</t>
+  </si>
+  <si>
+    <t>AE_12, AE_13, AE_14</t>
+  </si>
+  <si>
+    <t>AE_31, AE_32, AE_33</t>
+  </si>
+  <si>
+    <t>AE_31</t>
+  </si>
+  <si>
+    <t>AE_40, AE_41</t>
+  </si>
+  <si>
+    <t>AE_40</t>
+  </si>
+  <si>
+    <t>AE_11, AE_12, AE_16</t>
+  </si>
+  <si>
+    <t>AE_11, AE_15</t>
+  </si>
+  <si>
+    <t>AE_11</t>
+  </si>
+  <si>
+    <t>AE_20, AE_21, AE_22</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2031,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2041,7 @@
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2082,7 +2115,10 @@
         <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="G6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,12 +2131,6 @@
       <c r="C7" t="s">
         <v>336</v>
       </c>
-      <c r="G7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H7" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2124,7 +2154,7 @@
         <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2214,7 +2244,7 @@
         <v>336</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,8 +2257,8 @@
       <c r="C19" t="s">
         <v>336</v>
       </c>
-      <c r="G19" t="s">
-        <v>336</v>
+      <c r="G19" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2241,8 +2271,8 @@
       <c r="C20" t="s">
         <v>336</v>
       </c>
-      <c r="G20" t="s">
-        <v>336</v>
+      <c r="G20" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,8 +2285,8 @@
       <c r="C21" t="s">
         <v>336</v>
       </c>
-      <c r="G21" t="s">
-        <v>336</v>
+      <c r="G21" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,8 +2310,8 @@
       <c r="C23" t="s">
         <v>336</v>
       </c>
-      <c r="G23" t="s">
-        <v>336</v>
+      <c r="G23" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,8 +2327,8 @@
       <c r="D24" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>336</v>
+      <c r="G24" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>336</v>
@@ -2329,7 +2359,7 @@
         <v>338</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="H26" t="s">
         <v>336</v>
@@ -2346,10 +2376,10 @@
         <v>336</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H27" t="s">
         <v>336</v>
@@ -2365,6 +2395,7 @@
       <c r="C28" t="s">
         <v>336</v>
       </c>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2376,8 +2407,8 @@
       <c r="C29" t="s">
         <v>336</v>
       </c>
-      <c r="H29" t="s">
-        <v>336</v>
+      <c r="H29" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,8 +2498,8 @@
       <c r="D37" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>336</v>
+      <c r="G37" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="H37" t="s">
         <v>336</v>
@@ -2505,7 +2536,7 @@
         <v>340</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="H39" t="s">
         <v>336</v>
@@ -2522,7 +2553,7 @@
         <v>340</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H40" t="s">
         <v>336</v>
@@ -2541,9 +2572,7 @@
       <c r="D41" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G41" s="5"/>
       <c r="H41" t="s">
         <v>336</v>
       </c>
@@ -2561,9 +2590,7 @@
       <c r="D42" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G42" s="5"/>
       <c r="H42" t="s">
         <v>336</v>
       </c>
@@ -2579,7 +2606,7 @@
         <v>336</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H43" t="s">
         <v>336</v>
@@ -2596,10 +2623,10 @@
         <v>336</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H44" t="s">
         <v>336</v>
@@ -2613,10 +2640,10 @@
         <v>87</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
         <v>336</v>
@@ -2633,11 +2660,9 @@
         <v>336</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" t="s">
         <v>336</v>
       </c>
@@ -2653,11 +2678,9 @@
         <v>336</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" t="s">
         <v>336</v>
       </c>
@@ -2673,7 +2696,7 @@
         <v>336</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
         <v>336</v>
@@ -2690,10 +2713,10 @@
         <v>336</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="H49" t="s">
         <v>336</v>
@@ -2707,10 +2730,10 @@
         <v>97</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H50" t="s">
         <v>336</v>
@@ -2727,11 +2750,9 @@
         <v>336</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" t="s">
         <v>336</v>
       </c>
@@ -2747,7 +2768,7 @@
         <v>336</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H52" t="s">
         <v>336</v>
@@ -3006,9 +3027,7 @@
       <c r="B77" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G77" s="5"/>
       <c r="H77" t="s">
         <v>336</v>
       </c>
@@ -3020,9 +3039,7 @@
       <c r="B78" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G78" s="5"/>
       <c r="H78" t="s">
         <v>336</v>
       </c>
@@ -3034,9 +3051,7 @@
       <c r="B79" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G79" s="5"/>
       <c r="H79" t="s">
         <v>336</v>
       </c>
@@ -3052,7 +3067,7 @@
         <v>336</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,9 +3188,7 @@
       <c r="B90" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G90" s="5"/>
       <c r="H90" t="s">
         <v>336</v>
       </c>
@@ -3187,9 +3200,7 @@
       <c r="B91" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G91" s="5"/>
       <c r="H91" t="s">
         <v>336</v>
       </c>
@@ -3201,9 +3212,7 @@
       <c r="B92" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G92" s="5"/>
       <c r="H92" t="s">
         <v>336</v>
       </c>
@@ -3218,8 +3227,8 @@
       <c r="C93" t="s">
         <v>336</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>336</v>
+      <c r="G93" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="H93" t="s">
         <v>336</v>
@@ -3232,8 +3241,8 @@
       <c r="B94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>336</v>
+      <c r="G94" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="H94" t="s">
         <v>336</v>
@@ -3323,9 +3332,7 @@
       <c r="B102" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G102" s="5"/>
       <c r="H102" t="s">
         <v>336</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>336</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3478,8 +3485,8 @@
       <c r="C112" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="5" t="s">
-        <v>336</v>
+      <c r="G112" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3492,8 +3499,8 @@
       <c r="C113" t="s">
         <v>336</v>
       </c>
-      <c r="G113" s="5" t="s">
-        <v>336</v>
+      <c r="G113" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,8 +3513,8 @@
       <c r="C114" t="s">
         <v>336</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>336</v>
+      <c r="G114" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3520,8 +3527,8 @@
       <c r="C115" t="s">
         <v>336</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>336</v>
+      <c r="G115" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,8 +3541,8 @@
       <c r="C116" t="s">
         <v>336</v>
       </c>
-      <c r="G116" s="5" t="s">
-        <v>336</v>
+      <c r="G116" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,8 +3555,8 @@
       <c r="C117" t="s">
         <v>336</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>336</v>
+      <c r="G117" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,8 +3569,8 @@
       <c r="C118" t="s">
         <v>336</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>336</v>
+      <c r="G118" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3576,8 +3583,8 @@
       <c r="C119" t="s">
         <v>336</v>
       </c>
-      <c r="G119" s="5" t="s">
-        <v>336</v>
+      <c r="G119" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,8 +3597,8 @@
       <c r="C120" t="s">
         <v>336</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>336</v>
+      <c r="G120" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,8 +3611,8 @@
       <c r="C121" t="s">
         <v>336</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>336</v>
+      <c r="G121" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3618,8 +3625,8 @@
       <c r="C122" t="s">
         <v>336</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>336</v>
+      <c r="G122" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3632,8 +3639,8 @@
       <c r="C123" t="s">
         <v>336</v>
       </c>
-      <c r="G123" s="5" t="s">
-        <v>336</v>
+      <c r="G123" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3646,8 +3653,8 @@
       <c r="C124" t="s">
         <v>336</v>
       </c>
-      <c r="G124" s="5" t="s">
-        <v>336</v>
+      <c r="G124" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3660,8 +3667,8 @@
       <c r="C125" t="s">
         <v>336</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>336</v>
+      <c r="G125" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,8 +3681,8 @@
       <c r="C126" t="s">
         <v>336</v>
       </c>
-      <c r="G126" s="5" t="s">
-        <v>336</v>
+      <c r="G126" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3688,8 +3695,8 @@
       <c r="C127" t="s">
         <v>336</v>
       </c>
-      <c r="G127" s="5" t="s">
-        <v>336</v>
+      <c r="G127" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3702,8 +3709,8 @@
       <c r="C128" t="s">
         <v>336</v>
       </c>
-      <c r="G128" s="5" t="s">
-        <v>336</v>
+      <c r="G128" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3716,8 +3723,8 @@
       <c r="C129" t="s">
         <v>336</v>
       </c>
-      <c r="G129" s="5" t="s">
-        <v>336</v>
+      <c r="G129" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3730,8 +3737,8 @@
       <c r="C130" t="s">
         <v>336</v>
       </c>
-      <c r="G130" s="5" t="s">
-        <v>336</v>
+      <c r="G130" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3747,8 +3754,8 @@
       <c r="D131" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G131" s="5" t="s">
-        <v>336</v>
+      <c r="G131" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3761,8 +3768,8 @@
       <c r="C132" t="s">
         <v>336</v>
       </c>
-      <c r="G132" s="5" t="s">
-        <v>336</v>
+      <c r="G132" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,8 +3782,8 @@
       <c r="C133" t="s">
         <v>336</v>
       </c>
-      <c r="G133" s="5" t="s">
-        <v>336</v>
+      <c r="G133" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3789,8 +3796,8 @@
       <c r="C134" t="s">
         <v>336</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>336</v>
+      <c r="G134" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3803,8 +3810,8 @@
       <c r="C135" t="s">
         <v>336</v>
       </c>
-      <c r="G135" s="5" t="s">
-        <v>336</v>
+      <c r="G135" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3817,8 +3824,8 @@
       <c r="C136" t="s">
         <v>336</v>
       </c>
-      <c r="G136" s="5" t="s">
-        <v>336</v>
+      <c r="G136" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3831,8 +3838,8 @@
       <c r="C137" t="s">
         <v>336</v>
       </c>
-      <c r="G137" s="5" t="s">
-        <v>336</v>
+      <c r="G137" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,8 +3852,8 @@
       <c r="C138" t="s">
         <v>336</v>
       </c>
-      <c r="G138" s="5" t="s">
-        <v>336</v>
+      <c r="G138" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,8 +3866,8 @@
       <c r="C139" t="s">
         <v>336</v>
       </c>
-      <c r="G139" s="5" t="s">
-        <v>336</v>
+      <c r="G139" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3873,8 +3880,8 @@
       <c r="C140" t="s">
         <v>336</v>
       </c>
-      <c r="G140" s="5" t="s">
-        <v>336</v>
+      <c r="G140" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,8 +3894,8 @@
       <c r="C141" t="s">
         <v>336</v>
       </c>
-      <c r="G141" s="5" t="s">
-        <v>336</v>
+      <c r="G141" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3901,8 +3908,8 @@
       <c r="C142" t="s">
         <v>336</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>336</v>
+      <c r="G142" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3915,8 +3922,8 @@
       <c r="C143" t="s">
         <v>336</v>
       </c>
-      <c r="G143" s="5" t="s">
-        <v>336</v>
+      <c r="G143" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3929,8 +3936,8 @@
       <c r="C144" t="s">
         <v>336</v>
       </c>
-      <c r="G144" s="5" t="s">
-        <v>336</v>
+      <c r="G144" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,8 +3950,8 @@
       <c r="C145" t="s">
         <v>336</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>336</v>
+      <c r="G145" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,8 +3964,8 @@
       <c r="C146" t="s">
         <v>336</v>
       </c>
-      <c r="G146" s="5" t="s">
-        <v>336</v>
+      <c r="G146" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3971,8 +3978,8 @@
       <c r="C147" t="s">
         <v>336</v>
       </c>
-      <c r="G147" s="5" t="s">
-        <v>336</v>
+      <c r="G147" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3985,8 +3992,8 @@
       <c r="C148" t="s">
         <v>336</v>
       </c>
-      <c r="G148" s="5" t="s">
-        <v>336</v>
+      <c r="G148" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,8 +4006,8 @@
       <c r="C149" t="s">
         <v>336</v>
       </c>
-      <c r="G149" s="5" t="s">
-        <v>336</v>
+      <c r="G149" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,8 +4020,8 @@
       <c r="C150" t="s">
         <v>336</v>
       </c>
-      <c r="G150" s="5" t="s">
-        <v>336</v>
+      <c r="G150" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,8 +4034,8 @@
       <c r="C151" t="s">
         <v>336</v>
       </c>
-      <c r="G151" s="5" t="s">
-        <v>336</v>
+      <c r="G151" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4041,8 +4048,8 @@
       <c r="C152" t="s">
         <v>336</v>
       </c>
-      <c r="G152" s="5" t="s">
-        <v>336</v>
+      <c r="G152" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4055,8 +4062,8 @@
       <c r="D153" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G153" s="5" t="s">
-        <v>336</v>
+      <c r="G153" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4072,9 +4079,7 @@
       <c r="D154" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G154" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -4086,9 +4091,7 @@
       <c r="C155" t="s">
         <v>336</v>
       </c>
-      <c r="G155" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -4189,7 +4192,7 @@
         <v>336</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4203,7 +4206,7 @@
         <v>336</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
